--- a/Lab7-Timings.xlsx
+++ b/Lab7-Timings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duyenpham/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275CD244-8F70-B948-91A3-32687180C8B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB372162-7890-1A49-8641-C32F5A19E98D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11860" yWindow="460" windowWidth="21580" windowHeight="9340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7220" yWindow="460" windowWidth="21580" windowHeight="9340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,6 +501,9 @@
       <c r="F5">
         <v>15.7437</v>
       </c>
+      <c r="G5">
+        <v>2.5152399999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -523,6 +526,9 @@
       <c r="F6">
         <v>18.891400000000001</v>
       </c>
+      <c r="G6">
+        <v>32.505200000000002</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -545,6 +551,9 @@
       <c r="F7">
         <v>65.156700000000001</v>
       </c>
+      <c r="G7">
+        <v>13863</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -567,6 +576,9 @@
       <c r="F8">
         <v>53.510800000000003</v>
       </c>
+      <c r="G8">
+        <v>334.42500000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -589,6 +601,9 @@
       <c r="F9">
         <v>63.635599999999997</v>
       </c>
+      <c r="G9">
+        <v>2638.29</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -610,6 +625,9 @@
       </c>
       <c r="F10">
         <v>17.745100000000001</v>
+      </c>
+      <c r="G10">
+        <v>143.85400000000001</v>
       </c>
     </row>
   </sheetData>
